--- a/AIDA_basic/Results/LogicalArchitectureProposed.xlsx
+++ b/AIDA_basic/Results/LogicalArchitectureProposed.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,27 +501,27 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>['Send perceived position, attitude ', 'Send perceived position, attitude ', 'Send perceived position, attitude ']</t>
+          <t>['Send perceived position, attitude ', 'Send perceived position, attitude ']</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>['Monitor UAV Control', 'CheckWinfForce', 'Identify Absolute Aircraft Coordinates']</t>
+          <t>['CheckWinfForce', 'Identify Absolute Aircraft Coordinates']</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>Air/ Terrestrian Gravity_to_UAV Control Station Subsystem</t>
+          <t>Air/ Terrestrian Gravity_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
         <is>
-          <t>['perceived position', 'perceived attitude', 'wind', 'position settings']</t>
+          <t>['wind', 'position settings']</t>
         </is>
       </c>
     </row>
@@ -531,32 +531,32 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Aircraft</t>
+          <t>Air/ Terrestrian Gravity</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
         <is>
-          <t>Vision Subsystem</t>
+          <t>UAV Control Station Subsystem</t>
         </is>
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>['Send aircraft view']</t>
+          <t>['Send perceived position, attitude ']</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>['Record photos and videos']</t>
+          <t>['Monitor UAV Control']</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>Aircraft_to_Vision Subsystem</t>
+          <t>Air/ Terrestrian Gravity_to_UAV Control Station Subsystem</t>
         </is>
       </c>
       <c r="G3" s="4" t="inlineStr">
         <is>
-          <t>Aircraft view</t>
+          <t>['perceived position', 'perceived attitude']</t>
         </is>
       </c>
     </row>
@@ -566,32 +566,32 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>Aircraft Company Database</t>
+          <t>Aircraft</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Vision Subsystem</t>
         </is>
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>['Send/Receive data']</t>
+          <t>['Send aircraft view']</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>['Build FlightPlan Relative to Aircraft Type']</t>
+          <t>['Record photos and videos']</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Aircraft Company Database_to_UAV Control Station Subsystem</t>
+          <t>Aircraft_to_Vision Subsystem</t>
         </is>
       </c>
       <c r="G4" s="4" t="inlineStr">
         <is>
-          <t>aircraft 3D models</t>
+          <t>Aircraft view</t>
         </is>
       </c>
     </row>
@@ -601,17 +601,17 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>Airline Human Operator</t>
+          <t>Aircraft Company Database</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>['Configurate Flight Plan']</t>
+          <t>['Send/Receive data']</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -621,12 +621,12 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Airline Human Operator_to_UAV Control Station Subsystem</t>
+          <t>Aircraft Company Database_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Configuration</t>
+          <t>aircraft 3D models</t>
         </is>
       </c>
     </row>
@@ -636,32 +636,32 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>Flight Mgt Subsystem</t>
+          <t>Airline Human Operator</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
-          <t>Propulsion Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>['Control UAV attitude', 'Control UAV Position']</t>
+          <t>['Configurate Flight Plan']</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>['Generate Thrust', 'Generate Thrust']</t>
+          <t>['Build FlightPlan Relative to Aircraft Type']</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Flight Mgt Subsystem_to_Propulsion Subsystem</t>
+          <t>Airline Human Operator_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G6" s="4" t="inlineStr">
         <is>
-          <t>['Attitude Request', 'Position Request']</t>
+          <t>Configuration</t>
         </is>
       </c>
     </row>
@@ -671,32 +671,32 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>Mission Mgt Subsystem</t>
+          <t>Flight Mgt Subsystem</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Flight Mgt Subsystem</t>
+          <t>Propulsion Subsystem</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>['Retrieve POI', 'Retrieve POI']</t>
+          <t>['Control UAV attitude', 'Control UAV Position']</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>['Control UAV attitude', 'Control UAV Position']</t>
+          <t>['Generate Thrust', 'Generate Thrust']</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Mission Mgt Subsystem_to_Flight Mgt Subsystem</t>
+          <t>Flight Mgt Subsystem_to_Propulsion Subsystem</t>
         </is>
       </c>
       <c r="G7" s="4" t="inlineStr">
         <is>
-          <t>['TargetedPosition', 'Targeted Attitude']</t>
+          <t>['Attitude Request', 'Position Request']</t>
         </is>
       </c>
     </row>
@@ -711,27 +711,27 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Aircraft Company Database</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>['Manage Mission Modes']</t>
+          <t>['Send Pictures to DB']</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>['Manage Photos Recording']</t>
+          <t>['Send/Receive data']</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>Mission Mgt Subsystem_to_UAV Control Station Subsystem</t>
+          <t>Mission Mgt Subsystem_to_Aircraft Company Database</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>Photos recording</t>
+          <t>Pictures</t>
         </is>
       </c>
     </row>
@@ -741,32 +741,32 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>Moving Obstacles</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Flight Mgt Subsystem</t>
         </is>
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>['Send moving obstacle position']</t>
+          <t>['Sense and Avoid Obstacles', 'Sense and Avoid Obstacles', 'Retrieve POI', 'Retrieve POI', 'Manage Mission Modes']</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>['Sense and Avoid Obstacles']</t>
+          <t>['Control UAV attitude', 'Control UAV Position', 'Control UAV attitude', 'Control UAV Position', 'Emergency Landing']</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Moving Obstacles_to_UAV Control Station Subsystem</t>
+          <t>Mission Mgt Subsystem_to_Flight Mgt Subsystem</t>
         </is>
       </c>
       <c r="G9" s="4" t="inlineStr">
         <is>
-          <t>Moving object pos</t>
+          <t>['Emergency Landing', 'Corrected Attitude', 'Corrected position', 'TargetedPosition', 'Targeted Attitude']</t>
         </is>
       </c>
     </row>
@@ -776,32 +776,32 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>Propulsion Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>UAV Pilot</t>
+          <t>Vision Subsystem</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>['Generate Thrust']</t>
+          <t>['Manage Mission Modes']</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>['Send command and position setting']</t>
+          <t>['Manage Photos Recording']</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>Propulsion Subsystem_to_UAV Pilot</t>
+          <t>Mission Mgt Subsystem_to_Vision Subsystem</t>
         </is>
       </c>
       <c r="G10" s="4" t="inlineStr">
         <is>
-          <t>Total thrust</t>
+          <t>Photos recording</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>Stationary Obstacle</t>
+          <t>Moving Obstacles</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>['Send stationary obstacle position']</t>
+          <t>['Send moving obstacle position']</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -831,12 +831,12 @@
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>Stationary Obstacle_to_UAV Control Station Subsystem</t>
+          <t>Moving Obstacles_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G11" s="4" t="inlineStr">
         <is>
-          <t>stationary object position</t>
+          <t>Moving object pos</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Propulsion Subsystem</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Aircraft Company Database</t>
+          <t>UAV Pilot</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>['Send Pictures to DB']</t>
+          <t>['Generate Thrust']</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>['Send/Receive data']</t>
+          <t>['Send command and position setting']</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem_to_Aircraft Company Database</t>
+          <t>Propulsion Subsystem_to_UAV Pilot</t>
         </is>
       </c>
       <c r="G12" s="4" t="inlineStr">
         <is>
-          <t>Pictures</t>
+          <t>Total thrust</t>
         </is>
       </c>
     </row>
@@ -881,32 +881,32 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Stationary Obstacle</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Flight Mgt Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>['Sense and Avoid Obstacles', 'Sense and Avoid Obstacles']</t>
+          <t>['Send stationary obstacle position']</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>['Control UAV attitude', 'Control UAV Position']</t>
+          <t>['Sense and Avoid Obstacles']</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem_to_Flight Mgt Subsystem</t>
+          <t>Stationary Obstacle_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G13" s="4" t="inlineStr">
         <is>
-          <t>['Corrected Attitude', 'Corrected position']</t>
+          <t>stationary object position</t>
         </is>
       </c>
     </row>
@@ -921,27 +921,27 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Mission Mgt Subsystem</t>
+          <t>UAV Pilot</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>['Build FlightPlan Relative to Aircraft Type', 'CheckWinfForce', 'Identify Absolute Aircraft Coordinates', 'Send Pictures to DB']</t>
+          <t>['Monitor UAV Control']</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>['Retrieve POI', 'Manage Mission Modes', 'Retrieve POI', 'Identify Defects']</t>
+          <t>['Send command and position setting']</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem_to_Mission Mgt Subsystem</t>
+          <t>UAV Control Station Subsystem_to_UAV Pilot</t>
         </is>
       </c>
       <c r="G14" s="4" t="inlineStr">
         <is>
-          <t>['WindSpeedExceded', 'Pictures', 'Aircraft Absolute Position', 'FlightPlan']</t>
+          <t>Mission info</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>UAV Pilot</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
-          <t>UAV Pilot</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>['Monitor UAV Control']</t>
+          <t>['Send command and position setting']</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>['Send command and position setting']</t>
+          <t>['Manage Mission Modes']</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem_to_UAV Pilot</t>
+          <t>UAV Pilot_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G15" s="4" t="inlineStr">
         <is>
-          <t>Mission info</t>
+          <t>Start Mission</t>
         </is>
       </c>
     </row>
@@ -986,67 +986,32 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem</t>
+          <t>Vision Subsystem</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Vision Subsystem</t>
+          <t>Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>['Manage Photos Recording', 'Manage Photos Recording']</t>
+          <t>['Manage Photos Recording']</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>['Record photos and videos', 'Control Camera Orientation']</t>
+          <t>['Send Pictures to DB']</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>UAV Control Station Subsystem_to_Vision Subsystem</t>
+          <t>Vision Subsystem_to_Mission Mgt Subsystem</t>
         </is>
       </c>
       <c r="G16" s="4" t="inlineStr">
         <is>
-          <t>['Control Camera Orientation', 'StartRecordingCmd']</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>UAV Pilot</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>Mission Mgt Subsystem</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>['Send command and position setting']</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>['Manage Mission Modes']</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>UAV Pilot_to_Mission Mgt Subsystem</t>
-        </is>
-      </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>Start Mission</t>
+          <t>SendPictureCmd</t>
         </is>
       </c>
     </row>

--- a/AIDA_basic/Results/LogicalArchitectureProposed.xlsx
+++ b/AIDA_basic/Results/LogicalArchitectureProposed.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -57,6 +57,12 @@
       <top style="thick"/>
       <bottom style="thick"/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -69,10 +75,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
